--- a/UAC実験.xlsx
+++ b/UAC実験.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Siryou\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>HKEY_LOCAL_MACHINE\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System の EnableLUA が</t>
     <phoneticPr fontId="1"/>
@@ -203,6 +203,48 @@
     <rPh sb="48" eb="50">
       <t>カンケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetTokenInformationの値</t>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TokenElevationTypeDefault</t>
+  </si>
+  <si>
+    <t>TokenElevationTypeDefault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TokenElevationTypeFull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TokenElevationTypeLimited</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TokenElevationTypeDefault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TokenElevationTypeLimited</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UACが無効になっているか、標準ユーザーです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UACが有効になっており、昇格しています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UACが有効になっており、昇格していません</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -237,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +292,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -311,13 +371,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,23 +399,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,6 +450,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCECFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -726,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H67"/>
+  <dimension ref="B3:H70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,6 +842,7 @@
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="0.5" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
@@ -778,29 +881,31 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="5" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="H59" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -813,11 +918,13 @@
       <c r="G60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" s="8"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
@@ -828,11 +935,13 @@
       <c r="G61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="8"/>
-      <c r="C62" s="4" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -845,11 +954,13 @@
       <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="9"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
@@ -860,13 +971,15 @@
       <c r="G63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -879,11 +992,13 @@
       <c r="G64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B65" s="8"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,11 +1009,13 @@
       <c r="G65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="8"/>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -911,11 +1028,13 @@
       <c r="G66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="9"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
@@ -926,12 +1045,40 @@
       <c r="G67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E69" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAC実験.xlsx
+++ b/UAC実験.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>HKEY_LOCAL_MACHINE\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System の EnableLUA が</t>
     <phoneticPr fontId="1"/>
@@ -232,19 +232,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>UACが無効になっているか、標準ユーザーです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UACが有効になっており、昇格しています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UACが有効になっており、昇格していません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TokenElevationTypeDefault</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>TokenElevationTypeLimited</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UACが無効になっているか、標準ユーザーです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UACが有効になっており、昇格しています</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UACが有効になっており、昇格していません</t>
+    <t>TokenElevationTypeFull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 
+※UACを無効にすると自動で0になるので、1,2,3にはできない</t>
+    <rPh sb="8" eb="10">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,34 +433,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,7 +853,7 @@
   <dimension ref="B3:H70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="E60" sqref="E60:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,73 +927,67 @@
       <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>14</v>
+      <c r="E60" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>23</v>
+      <c r="H60" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
-      <c r="C61" s="9"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E61" s="19"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E62" s="19"/>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E63" s="18"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -992,8 +1008,8 @@
       <c r="G64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>27</v>
+      <c r="H64" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
@@ -1009,7 +1025,7 @@
       <c r="G65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1028,8 +1044,8 @@
       <c r="G66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="12" t="s">
-        <v>24</v>
+      <c r="H66" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.15">
@@ -1045,40 +1061,41 @@
       <c r="G67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E69" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E69" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="16" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E70" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E60:E63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAC実験.xlsx
+++ b/UAC実験.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>HKEY_LOCAL_MACHINE\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System の EnableLUA が</t>
     <phoneticPr fontId="1"/>
@@ -263,6 +263,14 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～2
+※一般ユーザーでは3,4にはできない</t>
+    <rPh sb="5" eb="7">
+      <t>イッパン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +461,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -852,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60:E63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,13 +938,13 @@
       <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F60" s="3"/>
@@ -946,11 +957,11 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
-      <c r="C61" s="16"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
         <v>19</v>
@@ -961,13 +972,13 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="3"/>
       <c r="G62" s="2" t="s">
         <v>18</v>
@@ -978,11 +989,11 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
-      <c r="C63" s="16"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="18"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
         <v>19</v>
@@ -995,7 +1006,7 @@
       <c r="B64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -1012,14 +1023,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B65" s="7"/>
-      <c r="C65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>14</v>
+      <c r="E65" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
@@ -1031,7 +1042,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" s="7"/>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -1048,14 +1059,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
-      <c r="C67" s="18"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>14</v>
+      <c r="E67" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="2" t="s">
